--- a/src/main/resources/wordTemp/temp1/6面谈记录及授信额度测算表 抵押贷.xlsx
+++ b/src/main/resources/wordTemp/temp1/6面谈记录及授信额度测算表 抵押贷.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\demoTemplate\Template\src\main\resources\wordTemp\temp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DBA498A6-6964-4132-B9E7-B1BF09D3551A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1DE55F93-CBD0-4C3F-AE65-042D24602BFD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="88">
   <si>
     <t>抵押贷款面谈记录及授信额度测算表</t>
   </si>
@@ -374,6 +374,10 @@
   </si>
   <si>
     <t>${cls.pLAdd}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${cls.sYMD}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -609,6 +613,9 @@
     </xf>
     <xf numFmtId="57" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -983,24 +990,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1022,23 +1029,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1072,23 +1079,23 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1098,9 +1105,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1110,9 +1117,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1122,9 +1129,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1134,9 +1141,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1170,81 +1177,81 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1277,19 +1284,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1309,11 +1316,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1321,25 +1328,25 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1398,24 +1405,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1437,23 +1444,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1487,23 +1494,23 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1513,9 +1520,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1525,9 +1532,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1537,9 +1544,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1549,9 +1556,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1585,81 +1592,81 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1692,19 +1699,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1731,9 +1738,9 @@
       <c r="C27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1741,25 +1748,25 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1817,24 +1824,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1856,23 +1863,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1906,23 +1913,23 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1932,9 +1939,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1944,9 +1951,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1956,9 +1963,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1968,9 +1975,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2004,81 +2011,81 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2111,27 +2118,27 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
@@ -2141,14 +2148,14 @@
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="25">
         <f>F23*D24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2156,25 +2163,25 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -2233,24 +2240,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2272,23 +2279,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2322,23 +2329,23 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2348,9 +2355,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2360,9 +2367,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2372,9 +2379,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2384,9 +2391,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2420,81 +2427,81 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2527,19 +2534,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -2549,9 +2556,9 @@
       <c r="C26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2564,9 +2571,9 @@
       <c r="C27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2574,25 +2581,25 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -2652,24 +2659,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2691,23 +2698,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2741,23 +2748,23 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2767,9 +2774,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2779,9 +2786,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2791,9 +2798,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2803,9 +2810,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2839,81 +2846,81 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2946,9 +2953,9 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2956,25 +2963,25 @@
       <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
       <c r="D28" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -3031,24 +3038,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3070,23 +3077,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3120,23 +3127,23 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3146,9 +3153,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3158,9 +3165,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -3170,9 +3177,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -3182,9 +3189,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -3218,81 +3225,81 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -3325,27 +3332,27 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -3355,11 +3362,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3367,25 +3374,25 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -3445,24 +3452,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3484,23 +3491,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3534,23 +3541,23 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3560,9 +3567,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3572,9 +3579,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -3584,9 +3591,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -3596,9 +3603,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -3632,81 +3639,81 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -3739,19 +3746,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -3771,11 +3778,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3783,25 +3790,25 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -3860,24 +3867,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3899,23 +3906,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -3949,23 +3956,23 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3975,9 +3982,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3987,9 +3994,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -3999,9 +4006,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4011,9 +4018,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -4047,81 +4054,81 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -4157,27 +4164,27 @@
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="23">
         <f>F23*D24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4185,25 +4192,25 @@
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -4260,24 +4267,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4299,23 +4306,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -4349,23 +4356,23 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -4375,9 +4382,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -4387,9 +4394,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -4399,9 +4406,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4411,9 +4418,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -4447,81 +4454,81 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -4554,32 +4561,32 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="23">
         <f>F23*D24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4587,25 +4594,25 @@
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -4663,24 +4670,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4702,23 +4709,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -4752,23 +4759,23 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -4778,9 +4785,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -4790,9 +4797,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -4802,9 +4809,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4814,9 +4821,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -4850,81 +4857,81 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -4957,32 +4964,32 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="23">
         <f>F23*D24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4990,25 +4997,25 @@
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -5051,8 +5058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:F10"/>
+    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5066,36 +5073,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>43718</v>
+      <c r="B3" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -5109,23 +5116,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -5171,11 +5178,11 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -5184,14 +5191,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -5203,11 +5210,11 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -5219,11 +5226,11 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -5235,11 +5242,11 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -5251,11 +5258,11 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="25">
         <v>0</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -5301,85 +5308,85 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="23">
         <v>0</v>
       </c>
-      <c r="F16" s="22"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -5408,19 +5415,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -5444,11 +5451,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5456,25 +5463,25 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -5534,24 +5541,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5573,23 +5580,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -5623,23 +5630,23 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -5649,9 +5656,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -5661,9 +5668,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -5673,9 +5680,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -5685,9 +5692,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -5721,81 +5728,81 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -5828,19 +5835,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -5867,9 +5874,9 @@
       <c r="C27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5877,25 +5884,25 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -5953,24 +5960,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5992,23 +5999,23 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -6042,23 +6049,23 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -6068,9 +6075,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -6080,9 +6087,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -6092,9 +6099,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -6104,9 +6111,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -6140,81 +6147,81 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -6247,19 +6254,19 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -6279,11 +6286,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6291,25 +6298,25 @@
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="29">

--- a/src/main/resources/wordTemp/temp1/6面谈记录及授信额度测算表 抵押贷.xlsx
+++ b/src/main/resources/wordTemp/temp1/6面谈记录及授信额度测算表 抵押贷.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\demoTemplate\Template\src\main\resources\wordTemp\temp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1DE55F93-CBD0-4C3F-AE65-042D24602BFD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA6EE970-36CE-42B5-8A83-C4D43A47052A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28248" windowHeight="12468" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="抵押借款人" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>保证金：授信额度（贷款额）</t>
@@ -317,35 +316,18 @@
     <t>剩余工作年限</t>
   </si>
   <si>
+    <t>${cls.sYMD}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>${cls.name}</t>
+  </si>
+  <si>
+    <t>${cls.tel}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>${cls.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
+    <t>${cls.cSumM}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -353,14 +335,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>${cls.cSumM}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>${cls.MI}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>${cls.pLAdd}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>${cls.totalA}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -370,14 +352,6 @@
   </si>
   <si>
     <t>${cls.Bond}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${cls.pLAdd}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${cls.sYMD}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +371,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -405,14 +378,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -420,7 +391,6 @@
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -438,7 +408,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -559,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,10 +547,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -589,6 +558,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -599,26 +571,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -629,29 +613,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -662,13 +625,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,24 +965,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1029,13 +1004,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -1079,9 +1054,9 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1105,9 +1080,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1117,9 +1092,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1129,9 +1104,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1141,9 +1116,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1177,13 +1152,13 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -1199,8 +1174,8 @@
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1211,8 +1186,8 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1223,8 +1198,8 @@
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1235,8 +1210,8 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1284,9 +1259,9 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
@@ -1316,11 +1291,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1350,27 +1325,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -1379,6 +1333,27 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1405,24 +1380,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1444,13 +1419,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -1494,9 +1469,9 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1520,9 +1495,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1532,9 +1507,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1544,9 +1519,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1556,9 +1531,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1592,13 +1567,13 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -1614,8 +1589,8 @@
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1626,8 +1601,8 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1638,8 +1613,8 @@
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1650,8 +1625,8 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1699,9 +1674,9 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
@@ -1738,9 +1713,9 @@
       <c r="C27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1770,27 +1745,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -1799,6 +1753,27 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1824,24 +1799,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1863,13 +1838,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -1913,9 +1888,9 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1939,9 +1914,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1951,9 +1926,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1963,9 +1938,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1975,9 +1950,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2011,13 +1986,13 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -2033,8 +2008,8 @@
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
@@ -2045,8 +2020,8 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -2057,8 +2032,8 @@
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
@@ -2069,8 +2044,8 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
@@ -2118,27 +2093,27 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
@@ -2148,14 +2123,14 @@
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="21">
         <f>F23*D24</f>
         <v>0</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="27"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2185,27 +2160,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="B31:C31"/>
@@ -2215,6 +2169,27 @@
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2240,24 +2215,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2279,13 +2254,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -2329,9 +2304,9 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2355,9 +2330,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2367,9 +2342,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2379,9 +2354,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2391,9 +2366,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2427,13 +2402,13 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -2449,8 +2424,8 @@
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
@@ -2461,8 +2436,8 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -2473,8 +2448,8 @@
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
@@ -2485,8 +2460,8 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
@@ -2534,9 +2509,9 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
@@ -2556,9 +2531,9 @@
       <c r="C26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2571,9 +2546,9 @@
       <c r="C27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2603,27 +2578,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="B31:C31"/>
@@ -2633,10 +2587,31 @@
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2659,24 +2634,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2698,13 +2673,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -2748,9 +2723,9 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2774,9 +2749,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2786,9 +2761,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2798,9 +2773,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2810,9 +2785,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2846,13 +2821,13 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -2868,8 +2843,8 @@
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
@@ -2880,8 +2855,8 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -2892,8 +2867,8 @@
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
@@ -2904,8 +2879,8 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
@@ -2953,9 +2928,9 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2985,33 +2960,33 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3038,24 +3013,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3077,13 +3052,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -3127,9 +3102,9 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3153,9 +3128,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3165,9 +3140,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -3177,9 +3152,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -3189,9 +3164,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -3225,13 +3200,13 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -3247,8 +3222,8 @@
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
@@ -3259,8 +3234,8 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -3271,8 +3246,8 @@
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
@@ -3283,8 +3258,8 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
@@ -3332,9 +3307,9 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
@@ -3350,9 +3325,9 @@
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -3362,11 +3337,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3396,27 +3371,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="B31:C31"/>
@@ -3426,6 +3380,27 @@
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3452,24 +3427,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3491,13 +3466,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -3541,9 +3516,9 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3567,9 +3542,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3579,9 +3554,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -3591,9 +3566,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -3603,9 +3578,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -3639,13 +3614,13 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -3661,8 +3636,8 @@
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
@@ -3673,8 +3648,8 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -3685,8 +3660,8 @@
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
@@ -3697,8 +3672,8 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
@@ -3746,9 +3721,9 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
@@ -3778,11 +3753,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3812,27 +3787,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -3841,6 +3795,27 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3867,24 +3842,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3906,13 +3881,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -3956,9 +3931,9 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3982,9 +3957,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -3994,9 +3969,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -4006,9 +3981,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4018,9 +3993,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -4054,13 +4029,13 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -4076,8 +4051,8 @@
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
@@ -4088,8 +4063,8 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -4100,8 +4075,8 @@
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
@@ -4112,8 +4087,8 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
@@ -4177,14 +4152,14 @@
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="20">
         <f>F23*D24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4214,27 +4189,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A22:F22"/>
@@ -4242,6 +4196,27 @@
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4267,24 +4242,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4306,13 +4281,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -4356,9 +4331,9 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -4382,9 +4357,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -4394,9 +4369,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -4406,9 +4381,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4418,9 +4393,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -4454,13 +4429,13 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -4476,8 +4451,8 @@
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
@@ -4488,8 +4463,8 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -4500,8 +4475,8 @@
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
@@ -4512,8 +4487,8 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
@@ -4561,9 +4536,9 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
@@ -4579,14 +4554,14 @@
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="20">
         <f>F23*D24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4616,27 +4591,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A22:F22"/>
@@ -4645,6 +4599,27 @@
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4670,24 +4645,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4709,13 +4684,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -4759,9 +4734,9 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -4785,9 +4760,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -4797,9 +4772,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -4809,9 +4784,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -4821,9 +4796,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -4857,13 +4832,13 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -4879,8 +4854,8 @@
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
@@ -4891,8 +4866,8 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -4903,8 +4878,8 @@
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
@@ -4915,8 +4890,8 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
@@ -4964,9 +4939,9 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
@@ -4982,14 +4957,14 @@
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="20">
         <f>F23*D24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5019,27 +4994,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A22:F22"/>
@@ -5048,6 +5002,27 @@
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5059,7 +5034,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5073,56 +5048,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>78</v>
+      <c r="D3" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>79</v>
+      <c r="F3" s="34" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -5138,13 +5113,13 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="35" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -5158,10 +5133,10 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -5178,16 +5153,16 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="B8" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>82</v>
+      <c r="F8" s="35" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5210,27 +5185,27 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="D10" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="10">
         <v>41456</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="D11" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -5242,11 +5217,11 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -5258,11 +5233,11 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="21">
         <v>0</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -5288,7 +5263,7 @@
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -5308,17 +5283,17 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="20">
         <v>0</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -5334,49 +5309,49 @@
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
@@ -5399,11 +5374,11 @@
       <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -5415,9 +5390,9 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
@@ -5433,29 +5408,31 @@
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>85</v>
+      <c r="D26" s="38" t="s">
+        <v>87</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5485,27 +5462,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -5514,11 +5470,32 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.46875" right="0.16875000000000001" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5541,24 +5518,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5580,13 +5557,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -5630,9 +5607,9 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -5656,9 +5633,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -5668,9 +5645,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -5680,9 +5657,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -5692,9 +5669,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -5728,13 +5705,13 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -5750,8 +5727,8 @@
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
@@ -5762,8 +5739,8 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -5774,8 +5751,8 @@
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
@@ -5786,8 +5763,8 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
@@ -5835,9 +5812,9 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
@@ -5874,9 +5851,9 @@
       <c r="C27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5906,27 +5883,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -5935,6 +5891,27 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5960,24 +5937,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5999,13 +5976,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -6049,9 +6026,9 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
@@ -6075,9 +6052,9 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -6087,9 +6064,9 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -6099,9 +6076,9 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -6111,9 +6088,9 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -6147,13 +6124,13 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -6169,8 +6146,8 @@
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
@@ -6181,8 +6158,8 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
@@ -6193,8 +6170,8 @@
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
@@ -6205,8 +6182,8 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
@@ -6254,9 +6231,9 @@
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
@@ -6286,11 +6263,11 @@
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6320,27 +6297,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="A22:F22"/>
@@ -6349,6 +6305,27 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
